--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2351392.364719376</v>
+        <v>2455571.999170447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.7654461215465</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>197.9791398602595</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883163</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.51165059784332</v>
       </c>
       <c r="W4" t="n">
-        <v>121.4856996582647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>263.9518592823298</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>110.1842403900295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.74106137621237</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.88241745423473</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>301.3385239472218</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>233.4659493211026</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.12191937146288</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.06574661157912</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.069540131684477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.2411842166464</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>252.5895617850416</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>54.84205284513808</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>46.15319674221002</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>105.1162657551305</v>
+        <v>33.58398714687282</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>128.7631841214231</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>217.8886059122774</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.019807611473597</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>25.26322697488565</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.7777418077836</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.40247677523102</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>69.18922512558713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8460632289449</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>40.67793690094165</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>105.5373371683559</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.3771414330738</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>155.8096229103361</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>60.86846495359787</v>
       </c>
       <c r="T43" t="n">
-        <v>209.584400850529</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>72.8097849205479</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>60.6471314173121</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369978</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>564.3163447387535</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>557.3708439895501</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2331.504681370805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4404,52 +4406,52 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4462,67 +4464,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133546</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V4" t="n">
-        <v>410.0175235133546</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W4" t="n">
         <v>287.3046955757135</v>
@@ -4531,7 +4533,7 @@
         <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1480.51685876552</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033357</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>939.4077790033357</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
         <v>828.1105664881544</v>
@@ -4562,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2257.256030805453</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1867.116698829641</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>905.9970448321118</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>684.2304294016378</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>684.2304294016378</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>684.2304294016378</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>684.2304294016378</v>
+        <v>332.773976541745</v>
       </c>
       <c r="X7" t="n">
-        <v>456.2408785036205</v>
+        <v>332.773976541745</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2234.477335940398</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.514818999986</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.249120393235</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.460867794991</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>710.4749630053836</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4804,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4834,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2621.07717600452</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4883,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>541.2677155424757</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>541.2677155424757</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>541.2677155424757</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W10" t="n">
-        <v>541.2677155424757</v>
+        <v>417.09676419033</v>
       </c>
       <c r="X10" t="n">
-        <v>541.2677155424757</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.2677155424757</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138415</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859347</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735989</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3287287912058</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4387812932954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951537</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333972</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>2878.328163333972</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>3505.926126888579</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4057.835857127866</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.95525898292</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550126</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426769</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602838</v>
+        <v>518.7345161832558</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5905,55 +5907,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854707</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5971,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9229991561132</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3240.397708662309</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>3071.461525734402</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>3642.838752636078</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y25" t="n">
-        <v>3422.046173492548</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273906</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306004</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378097</v>
+        <v>2910.517678583983</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378097</v>
+        <v>2760.401039171647</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649336</v>
+        <v>2612.487945589254</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151425</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.617138214751</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177791</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279774</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136244</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,10 +6554,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001556</v>
+        <v>3301.483384420093</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073649</v>
+        <v>3132.547201492187</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661314</v>
+        <v>2982.430562079851</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>2834.517468497458</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4659.11347888826</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4476.258644543164</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4256.657179566106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>3967.581952910304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873343</v>
+        <v>3931.91397929188</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975326</v>
+        <v>3703.924428393863</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831796</v>
+        <v>3483.131849250333</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6782,22 @@
         <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M33" t="n">
-        <v>3060.83890577277</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N33" t="n">
-        <v>3688.436869327377</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
         <v>4690.833152398593</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3192.420589669523</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741616</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4112.268354578271</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3822.85118454131</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3594.861633643293</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y34" t="n">
-        <v>3374.069054499763</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
         <v>4457.571492023711</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.843151638089</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>741.843151638089</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>591.7265122257533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>443.8134186433601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459586</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>4533.449694913405</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>4313.848229936347</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>4024.773003280545</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>3770.088515074658</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>3480.671345037697</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>3252.68179413968</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761984</v>
+        <v>3031.88921499615</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2385.479785647333</v>
       </c>
       <c r="T43" t="n">
-        <v>2052.406834234631</v>
+        <v>2165.878320670274</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7733,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>1186.520756890282</v>
@@ -7740,13 +7742,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.5151132204103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.28295407562244</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>33.93343655154939</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>112.4047682534897</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.26785128072123</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.30478226780072</v>
+        <v>111.8370608760584</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>19.85228889678925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.6960474398173915</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4141550350956</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>120.1578210480456</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.97276993489064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>182.9484181982409</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>104.7431111219896</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>113.0473161837389</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.86967966555403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>25.21666309130845</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.1578210480467</v>
       </c>
       <c r="T43" t="n">
-        <v>7.821049476759299</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>73.62417772602127</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26442,7 +26444,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482183</v>
+        <v>-893968.0587482192</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.686979374</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793744</v>
+        <v>434776.6869793747</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566001</v>
+        <v>182957.0391566007</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639555</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639557</v>
       </c>
       <c r="H6" t="n">
         <v>508369.5009639559</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639557</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.2985666782</v>
+        <v>290838.2985666784</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639557</v>
+        <v>508369.5009639555</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639556</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.4730284439</v>
+        <v>423314.473028444</v>
       </c>
       <c r="N6" t="n">
         <v>508369.5009639558</v>
       </c>
       <c r="O6" t="n">
+        <v>508369.5009639555</v>
+      </c>
+      <c r="P6" t="n">
         <v>508369.5009639558</v>
-      </c>
-      <c r="P6" t="n">
-        <v>508369.5009639555</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26799,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>261.1562795319069</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>171.7519608182095</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>197.6259927259847</v>
       </c>
       <c r="W4" t="n">
-        <v>165.0372986783264</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>101.3210324886778</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>271.7461296822323</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>175.0279639552295</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.6405808823563</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>109.5832017062316</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>152.771989334951</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>122.4270299047063</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.4572517250119</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968498</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>537.7477759959916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>260.171071406825</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>710.7237876039892</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238077</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>491.5977325265306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O36" t="n">
-        <v>653.3850396373757</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>188.4731159523453</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748315</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>403.7733685816613</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>122.329632432466</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819709</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377862</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>349.0014880820862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O36" t="n">
-        <v>510.7887951929313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>45.87687150790087</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2455571.999170447</v>
+        <v>2451559.389156454</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133248</v>
+        <v>9271219.703133246</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>213.4331505673749</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>197.9791398602595</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.14604082735066</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>54.51165059784332</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>263.9518592823298</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>5.400304892655059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.9484855506643</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.88241745423473</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>138.3721243800033</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.4659493211026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.06574661157912</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.52129633183119</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5895617850416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>46.15319674221002</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.58398714687282</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.8886059122774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.26322697488565</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>104.7777418077836</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>149.2351784782012</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>105.8460632289449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.5373371683559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>155.8096229103361</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>60.86846495359787</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>224.7837165195613</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792697</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522582</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.504681370805</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y2" t="n">
-        <v>2331.504681370805</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218345</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>855.0829241743963</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>855.0829241743963</v>
       </c>
       <c r="U4" t="n">
-        <v>631.784138943829</v>
+        <v>565.9800573000399</v>
       </c>
       <c r="V4" t="n">
-        <v>576.7218656126742</v>
+        <v>565.9800573000399</v>
       </c>
       <c r="W4" t="n">
-        <v>287.3046955757135</v>
+        <v>565.9800573000399</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>565.9800573000399</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218345</v>
+        <v>565.9800573000399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.51685876552</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>879.773173361559</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>493.9849207633147</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>487.0394200141113</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>71.96696985910773</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>71.96696985910773</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066533</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805453</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.116698829641</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4758,19 +4758,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379417</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>332.773976541745</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>332.773976541745</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.773976541745</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.376265094905</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>545.8624381900114</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.976105159027</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818241</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>417.09676419033</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>417.09676419033</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,16 +5773,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>518.7345161832558</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1500.405126015258</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3079.453861511889</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2910.517678583983</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2760.401039171647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2612.487945589254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.301626420637</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3709.884456383676</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3481.894905485659</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3261.102326342129</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3301.483384420093</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.547201492187</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>2982.430562079851</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>2834.517468497458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>4221.331149328841</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3931.91397929188</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X31" t="n">
-        <v>3703.924428393863</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y31" t="n">
-        <v>3483.131849250333</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3031.88921499615</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4533.449694913405</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4313.848229936347</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4024.773003280545</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3770.088515074658</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3480.671345037697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3252.68179413968</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3031.88921499615</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2385.479785647333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.803094014472</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7255247667966</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.93343655154939</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.26785128072123</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.8370608760584</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6960474398173915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>120.1578210480456</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.64330621514763</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.0473161837389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>25.21666309130845</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1578210480467</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.40075786968285</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>73.62417772602127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482192</v>
+        <v>-893968.0587482185</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.686979374</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793747</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566007</v>
+        <v>182609.6599022438</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639555</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095986</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639559</v>
+        <v>508022.1217095986</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.2985666784</v>
+        <v>290490.9193123213</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639555</v>
+        <v>508022.1217095985</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095987</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.473028444</v>
+        <v>422967.093774087</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639558</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639555</v>
+        <v>508022.1217095986</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639558</v>
+        <v>508022.1217095986</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>114.31910790276</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>171.7519608182095</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>124.6229845040912</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>197.6259927259847</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3210324886778</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>36.17662488027089</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>72.66698746754805</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.6405808823563</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>272.5496012734502</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>152.771989334951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>259.4572517250119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>710.7237876039892</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>512.9101366533182</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>568.5897536819709</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>370.3138922088737</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2451559.389156454</v>
+        <v>2453319.91945924</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133246</v>
+        <v>9271219.703133248</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>28.34128745527125</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>213.4331505673749</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.14604082735066</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>294.4231613584441</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>5.400304892655059</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.9484855506643</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1062709592703</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>138.3721243800033</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>74.2249430371199</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>246.0853692776448</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>149.2351784782012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.54416032354756</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>11.56087338713458</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>933.9107356666991</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>548.1224830684548</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>137.1365782788473</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2420.282606282261</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2030.14327430645</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3315924698002</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4515,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>855.0829241743963</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>855.0829241743963</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>565.9800573000399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>565.9800573000399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>565.9800573000399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>565.9800573000399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.9800573000399</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968309</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="D5" t="n">
-        <v>879.773173361559</v>
+        <v>1529.548103213855</v>
       </c>
       <c r="E5" t="n">
-        <v>493.9849207633147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>487.0394200141113</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>71.96696985910773</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>71.96696985910773</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902781</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="E7" t="n">
         <v>527.322087337517</v>
@@ -4764,13 +4764,13 @@
         <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392149</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392149</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="F8" t="n">
-        <v>545.8624381900114</v>
+        <v>556.5592565236717</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>141.4868063686682</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,40 +4971,40 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5427,13 +5427,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,43 +5521,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6141,10 +6141,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,16 +6721,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>278.5023935224885</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>136.7905623646866</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>564.5188827892241</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768884</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768884</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>247.2061440917683</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>105.4943129339664</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1750.40682139984</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.722333193953</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W43" t="n">
-        <v>1206.305163156993</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.09910511159939</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>38.72167599501797</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.70496293143093</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
@@ -26328,10 +26328,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26340,7 +26340,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
@@ -26352,10 +26352,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26524,46 +26524,46 @@
         <v>-893968.0587482185</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
         <v>434776.6869793737</v>
       </c>
       <c r="E6" t="n">
-        <v>182609.6599022438</v>
+        <v>182922.301231165</v>
       </c>
       <c r="F6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="G6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.7630385202</v>
       </c>
       <c r="H6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="I6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="J6" t="n">
-        <v>290490.9193123213</v>
+        <v>290803.5606412426</v>
       </c>
       <c r="K6" t="n">
-        <v>508022.1217095985</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="L6" t="n">
-        <v>508022.1217095987</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="M6" t="n">
-        <v>422967.093774087</v>
+        <v>423279.7351030084</v>
       </c>
       <c r="N6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="O6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.76303852</v>
       </c>
       <c r="P6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.7630385202</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>382.5804381981822</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>114.31910790276</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>124.6229845040912</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>87.5072087138177</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.17662488027089</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>72.66698746754805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>43.32769168729882</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>272.5496012734502</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>220.3828213502006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32241,10 +32241,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
